--- a/data/trans_dic/P38B-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P38B-Provincia-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.7055762181352653</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9705051694672107</v>
+        <v>0.9705051694672108</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.8968772613155666</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7888185107952443</v>
+        <v>0.7926985425672429</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6485292247763309</v>
+        <v>0.6480045221247278</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9441967372784894</v>
+        <v>0.9446139211400618</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8539899005444141</v>
+        <v>0.8526144534321204</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6945080977504162</v>
+        <v>0.6927102582965003</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9713221990952379</v>
+        <v>0.9699115448462999</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8368075364202615</v>
+        <v>0.8376679598111587</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6908622947768124</v>
+        <v>0.6859245842458044</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9639396545290994</v>
+        <v>0.9647573481563614</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8796145062347995</v>
+        <v>0.879153175652014</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7562656087689935</v>
+        <v>0.7552862983249342</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9861012470639955</v>
+        <v>0.9875603564510981</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9280278555301392</v>
+        <v>0.929296263654196</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7974068393153201</v>
+        <v>0.7976446306201816</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9946950530800874</v>
+        <v>0.9945860706178085</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.894118145389073</v>
+        <v>0.8974674368899869</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7642597920203315</v>
+        <v>0.7635570999978696</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9878571033280384</v>
+        <v>0.988533754823796</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.9492550087389251</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.8398300224521403</v>
+        <v>0.8398300224521404</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.9024354988647599</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8382918609193258</v>
+        <v>0.8391277414547574</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8502487780528997</v>
+        <v>0.8508246243149774</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7085339529557211</v>
+        <v>0.7067107155027739</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9095985409659169</v>
+        <v>0.9109533147334106</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9256436957843076</v>
+        <v>0.9276291409481228</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8037289493482604</v>
+        <v>0.7992511315417035</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8833598236180944</v>
+        <v>0.8831474046030704</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.897815516256576</v>
+        <v>0.8989217410234701</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7664233948200233</v>
+        <v>0.7669164478995419</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.896353040473852</v>
+        <v>0.8992733718893204</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9084239661614087</v>
+        <v>0.9100210798541021</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8103665674686157</v>
+        <v>0.8113179842817119</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9535482266669388</v>
+        <v>0.953215913928062</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9657321768963404</v>
+        <v>0.9651572578814575</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8709911382558327</v>
+        <v>0.8702058458215902</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9185378717536721</v>
+        <v>0.9200081192742448</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9324816411410265</v>
+        <v>0.9335912113378548</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8306320322900519</v>
+        <v>0.8307911224144152</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.8949198780172907</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9343152869713592</v>
+        <v>0.9343152869713595</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.8846668233546994</v>
@@ -873,7 +873,7 @@
         <v>0.9228073069873536</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.9695973475498622</v>
+        <v>0.969597347549862</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.864719513580178</v>
@@ -882,7 +882,7 @@
         <v>0.9092223270700799</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.953015970910188</v>
+        <v>0.9530159709101876</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8029676575310507</v>
+        <v>0.7989284112630637</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8602378420593052</v>
+        <v>0.8578124077808257</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8932140483767854</v>
+        <v>0.9012517027135398</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8459703403046505</v>
+        <v>0.8449388563807386</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8919543970624663</v>
+        <v>0.8913992988507473</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9447414992479014</v>
+        <v>0.9441051215557124</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8322164853711806</v>
+        <v>0.8340504326079888</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8872956674073735</v>
+        <v>0.8882117395355256</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9310886730389788</v>
+        <v>0.932801340069057</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8793339523856899</v>
+        <v>0.8803638139024954</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9237966241868328</v>
+        <v>0.9232941364901284</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9596085611515668</v>
+        <v>0.9618812441089719</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9163198079797527</v>
+        <v>0.9173110771314934</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9484527607981698</v>
+        <v>0.948312540347929</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9855608266555251</v>
+        <v>0.9854173305542362</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8878905239337935</v>
+        <v>0.889531133506858</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9298018673200608</v>
+        <v>0.9298801793579821</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9678094344548671</v>
+        <v>0.9689217420357651</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.9135847162840155</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8623673823699919</v>
+        <v>0.8623673823699917</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.8497703297873791</v>
@@ -982,7 +982,7 @@
         <v>0.9149290507626002</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.9273627229921951</v>
+        <v>0.9273627229921952</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.8105276664529272</v>
@@ -991,7 +991,7 @@
         <v>0.9142739527509426</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.8968448815018748</v>
+        <v>0.8968448815018747</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7176876695226954</v>
+        <v>0.720673010841505</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8794589740690492</v>
+        <v>0.8789223214364749</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7883781218181746</v>
+        <v>0.7909413404778985</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8029627248351022</v>
+        <v>0.8115255699698094</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8799877538533513</v>
+        <v>0.8825290007456709</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8920461437369757</v>
+        <v>0.8895802061449813</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7823641713892784</v>
+        <v>0.7812780089760856</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8930779166656645</v>
+        <v>0.8927065131289248</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8607853641288729</v>
+        <v>0.858694700636694</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8124760963966249</v>
+        <v>0.809285991461838</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9369682575562374</v>
+        <v>0.9393545772063753</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9131245252620301</v>
+        <v>0.9115786109709657</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8821976771286033</v>
+        <v>0.8836294988106148</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9410043472557417</v>
+        <v>0.9389904847774585</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9514599231463088</v>
+        <v>0.9519857872779394</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8379478411922383</v>
+        <v>0.8382432602552154</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9338277587654892</v>
+        <v>0.9319653043840664</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9232870337053019</v>
+        <v>0.9238150418639181</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.885323184045257</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.8654563386494196</v>
+        <v>0.8654563386494194</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.8791695591713734</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7763902474204029</v>
+        <v>0.7794256090888337</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7104133021753928</v>
+        <v>0.7224771365288988</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7266611242756942</v>
+        <v>0.7181194803949</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8834924072652711</v>
+        <v>0.8799956847588746</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.832679010419202</v>
+        <v>0.8360667898538009</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8160552746875143</v>
+        <v>0.8175101617577728</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8456310297722924</v>
+        <v>0.8426680746795758</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7985678498701666</v>
+        <v>0.7949871132601516</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7888135353483078</v>
+        <v>0.7860997041861612</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8856426459919857</v>
+        <v>0.8848132322572722</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8257600358006354</v>
+        <v>0.8305992057363499</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8367815554854313</v>
+        <v>0.8351801779530461</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9520685886371456</v>
+        <v>0.9519588432587565</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9198327791386393</v>
+        <v>0.9206918616110802</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8994514726294875</v>
+        <v>0.9019202955865705</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9084017677954632</v>
+        <v>0.9071473565516679</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8654153541806487</v>
+        <v>0.8680375190853681</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.8632612749681567</v>
+        <v>0.8597008023582632</v>
       </c>
     </row>
     <row r="19">
@@ -1191,7 +1191,7 @@
         <v>0.8059058295582285</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9391698596841219</v>
+        <v>0.939169859684122</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.884211917397602</v>
@@ -1200,7 +1200,7 @@
         <v>0.8676984038205401</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.9714904230985949</v>
+        <v>0.9714904230985948</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.881147471713064</v>
@@ -1209,7 +1209,7 @@
         <v>0.8373396572378006</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.9550837733697685</v>
+        <v>0.9550837733697682</v>
       </c>
     </row>
     <row r="20">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8395512781986836</v>
+        <v>0.8371183413739747</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7534033666569699</v>
+        <v>0.7495488136098339</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.901124060276652</v>
+        <v>0.9024450345600175</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8394243585363961</v>
+        <v>0.8416341861575996</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8231174327798951</v>
+        <v>0.8210678775168795</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.9408004273743924</v>
+        <v>0.9446518938300724</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8526309851189184</v>
+        <v>0.8510602977802646</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.8031280651332712</v>
+        <v>0.8032662953892895</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.9331021401631737</v>
+        <v>0.9357069406131787</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9181455134308771</v>
+        <v>0.9146126044996824</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8508171135938453</v>
+        <v>0.8494645537024031</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9654218372413397</v>
+        <v>0.9645173902007567</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.919760472178505</v>
+        <v>0.9184602849861172</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.904273500671637</v>
+        <v>0.9050079601525197</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9875385637617858</v>
+        <v>0.9880866498783293</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9062986987614235</v>
+        <v>0.9077072111926596</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.8641269716389172</v>
+        <v>0.8673421527622402</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.9702490440805881</v>
+        <v>0.972418145074724</v>
       </c>
     </row>
     <row r="22">
@@ -1309,7 +1309,7 @@
         <v>0.7359838357596016</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.9115916046454073</v>
+        <v>0.9115916046454072</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.8913530836139868</v>
@@ -1318,7 +1318,7 @@
         <v>0.6993153274342394</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.8746456475457489</v>
+        <v>0.8746456475457491</v>
       </c>
     </row>
     <row r="23">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8295087048056748</v>
+        <v>0.8249593457604394</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6227941527780466</v>
+        <v>0.6204699000383413</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7960812712048612</v>
+        <v>0.7940415115366459</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8991429189434034</v>
+        <v>0.8985100760218951</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6970596679464282</v>
+        <v>0.7016425332027639</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.883512902501985</v>
+        <v>0.8881214149750764</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8721496036776268</v>
+        <v>0.8731856567738434</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.6738253807684778</v>
+        <v>0.6752568488141508</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.8526044514061683</v>
+        <v>0.8530646685848634</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8833208905768134</v>
+        <v>0.8836531351599999</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.698239575983125</v>
+        <v>0.6998890344342427</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.870379186587346</v>
+        <v>0.8701415430962912</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9417844664569295</v>
+        <v>0.9411161563060598</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7684244952391096</v>
+        <v>0.7703748322364697</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9307365520244156</v>
+        <v>0.9319314200776573</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9059684767864373</v>
+        <v>0.9071869191789665</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7231637907861234</v>
+        <v>0.725545468755708</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.8952008749934034</v>
+        <v>0.8947716556572451</v>
       </c>
     </row>
     <row r="25">
@@ -1418,7 +1418,7 @@
         <v>0.9449706223404191</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.6908075578531083</v>
+        <v>0.6908075578531084</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>0.7689696496223078</v>
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7079132968385978</v>
+        <v>0.7088477235232602</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8702946800213192</v>
+        <v>0.8689858752418627</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.5604466063868552</v>
+        <v>0.5603508934765061</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.7588896809331009</v>
+        <v>0.7610762816602937</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.9273208288712151</v>
+        <v>0.9287594568612066</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.6559858282582313</v>
+        <v>0.6570015450163879</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.7458886978861006</v>
+        <v>0.7471304210821099</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.905524418275123</v>
+        <v>0.9036010864023036</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.6218957833409615</v>
+        <v>0.6210287541365094</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.7759193561439286</v>
+        <v>0.7743394399413522</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9133577234840603</v>
+        <v>0.9114072071987477</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.6343898670011432</v>
+        <v>0.6341878199183041</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.8190125624716679</v>
+        <v>0.8202225049720238</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.9589166307304876</v>
+        <v>0.9592781853450491</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.7206582848881985</v>
+        <v>0.7204908798988156</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.79023872983105</v>
+        <v>0.7939235293889708</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.9323647399356186</v>
+        <v>0.9321671400857797</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.6708791658152197</v>
+        <v>0.6682912028796625</v>
       </c>
     </row>
     <row r="28">
@@ -1527,7 +1527,7 @@
         <v>0.8740722453243587</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.8669795389390964</v>
+        <v>0.8669795389390962</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.8501564571320428</v>
@@ -1536,7 +1536,7 @@
         <v>0.8471071612511355</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.8341567502621414</v>
+        <v>0.8341567502621415</v>
       </c>
     </row>
     <row r="29">
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.8075067743341079</v>
+        <v>0.807702800485779</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8055806922327826</v>
+        <v>0.8058150668163038</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.7821979010552818</v>
+        <v>0.7820889917171772</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8666789605291093</v>
+        <v>0.8659651706006887</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.8628801446396743</v>
+        <v>0.8636988570506248</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.8542067625481629</v>
+        <v>0.8556725262695388</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.8411790279224783</v>
+        <v>0.8422142420477627</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.8389437205996593</v>
+        <v>0.8376002457665672</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.8229666223866872</v>
+        <v>0.8242717290345771</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8349773044667589</v>
+        <v>0.8339655902074863</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8320346536357961</v>
+        <v>0.8330872340829878</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.816301833541657</v>
+        <v>0.8167165110199087</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.8887581153772283</v>
+        <v>0.8878937164024245</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.8846268927390782</v>
+        <v>0.8844429438728175</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.8792815530108368</v>
+        <v>0.8788568320472572</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.8586915232091314</v>
+        <v>0.8593632250163696</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.8552141896373001</v>
+        <v>0.8556914239756814</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.8436003780552088</v>
+        <v>0.8445457446705201</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>228202</v>
+        <v>229325</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>187373</v>
+        <v>187221</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>301052</v>
+        <v>301185</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>244300</v>
+        <v>243907</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>199892</v>
+        <v>199374</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>306997</v>
+        <v>306551</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>481469</v>
+        <v>481964</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>398447</v>
+        <v>395599</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>612011</v>
+        <v>612530</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>254469</v>
+        <v>254335</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>218500</v>
+        <v>218217</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>314413</v>
+        <v>314879</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>265480</v>
+        <v>265843</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>229508</v>
+        <v>229576</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>314384</v>
+        <v>314350</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>514443</v>
+        <v>516370</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>440778</v>
+        <v>440372</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>627196</v>
+        <v>627626</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>422075</v>
+        <v>422496</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>421344</v>
+        <v>421630</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>375282</v>
+        <v>374316</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>474573</v>
+        <v>475280</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>483278</v>
+        <v>484314</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>438754</v>
+        <v>436310</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>905650</v>
+        <v>905432</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>913665</v>
+        <v>914790</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>824333</v>
+        <v>824863</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>451308</v>
+        <v>452779</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>450173</v>
+        <v>450965</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>429219</v>
+        <v>429723</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>497503</v>
+        <v>497330</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>504208</v>
+        <v>503908</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>475472</v>
+        <v>475044</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>941715</v>
+        <v>943223</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>948943</v>
+        <v>950072</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>893393</v>
+        <v>893564</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>260198</v>
+        <v>258890</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>274042</v>
+        <v>273269</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>282249</v>
+        <v>284789</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>288493</v>
+        <v>288141</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>299153</v>
+        <v>298966</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>336688</v>
+        <v>336461</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>553479</v>
+        <v>554699</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>580251</v>
+        <v>580850</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>626041</v>
+        <v>627192</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>284945</v>
+        <v>285278</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>294289</v>
+        <v>294129</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>303230</v>
+        <v>303948</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>312483</v>
+        <v>312821</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>318102</v>
+        <v>318055</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>351235</v>
+        <v>351184</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>590506</v>
+        <v>591597</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>608048</v>
+        <v>608099</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>650731</v>
+        <v>651479</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>266088</v>
+        <v>267195</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>322722</v>
+        <v>322525</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>294179</v>
+        <v>295136</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>309712</v>
+        <v>313015</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>339744</v>
+        <v>340725</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>376051</v>
+        <v>375011</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>591834</v>
+        <v>591013</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>672517</v>
+        <v>672237</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>684071</v>
+        <v>682410</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>301231</v>
+        <v>300048</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>343825</v>
+        <v>344701</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>340728</v>
+        <v>340151</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>340274</v>
+        <v>340827</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>363301</v>
+        <v>362524</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>401097</v>
+        <v>401319</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>633882</v>
+        <v>634105</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>703203</v>
+        <v>701801</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>733742</v>
+        <v>734161</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>164271</v>
+        <v>164913</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>150054</v>
+        <v>152602</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>149449</v>
+        <v>147692</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>193056</v>
+        <v>192292</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>182013</v>
+        <v>182753</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>185100</v>
+        <v>185430</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>363704</v>
+        <v>362430</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>343231</v>
+        <v>341692</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>341152</v>
+        <v>339979</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>187387</v>
+        <v>187211</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>174418</v>
+        <v>175440</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>172097</v>
+        <v>171767</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>208041</v>
+        <v>208017</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>201063</v>
+        <v>201251</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>204016</v>
+        <v>204576</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>390702</v>
+        <v>390162</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>371962</v>
+        <v>373089</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>373350</v>
+        <v>371810</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>230021</v>
+        <v>229355</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>197458</v>
+        <v>196448</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>243941</v>
+        <v>244298</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>234248</v>
+        <v>234865</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>223369</v>
+        <v>222812</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>247033</v>
+        <v>248044</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>471538</v>
+        <v>470670</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>428435</v>
+        <v>428509</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>497608</v>
+        <v>498998</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>251554</v>
+        <v>250586</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>222989</v>
+        <v>222634</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>261346</v>
+        <v>261102</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>256667</v>
+        <v>256304</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>245392</v>
+        <v>245591</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>259305</v>
+        <v>259449</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>501219</v>
+        <v>501997</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>460975</v>
+        <v>462691</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>517418</v>
+        <v>518575</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>545536</v>
+        <v>542544</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>404180</v>
+        <v>402672</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>572134</v>
+        <v>570668</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>621129</v>
+        <v>620692</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>479678</v>
+        <v>482832</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>680230</v>
+        <v>683778</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1176061</v>
+        <v>1177459</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>900988</v>
+        <v>902902</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1269190</v>
+        <v>1269875</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>580927</v>
+        <v>581145</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>453143</v>
+        <v>454213</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>625531</v>
+        <v>625360</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>650586</v>
+        <v>650124</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>528787</v>
+        <v>530130</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>716588</v>
+        <v>717508</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1221665</v>
+        <v>1223308</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>966960</v>
+        <v>970144</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1332599</v>
+        <v>1331960</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>546511</v>
+        <v>547233</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>671789</v>
+        <v>670779</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>447277</v>
+        <v>447200</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>618912</v>
+        <v>620696</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>764307</v>
+        <v>765493</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>544939</v>
+        <v>545782</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1184138</v>
+        <v>1186109</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1445326</v>
+        <v>1442256</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1012937</v>
+        <v>1011525</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>599012</v>
+        <v>597792</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>705030</v>
+        <v>703524</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>506289</v>
+        <v>506128</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>667946</v>
+        <v>668932</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>790349</v>
+        <v>790647</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>598663</v>
+        <v>598524</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1254546</v>
+        <v>1260396</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1488166</v>
+        <v>1487851</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1092721</v>
+        <v>1088505</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2747802</v>
+        <v>2748469</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2710129</v>
+        <v>2710917</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2761765</v>
+        <v>2761380</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>3066711</v>
+        <v>3064186</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>3049156</v>
+        <v>3052049</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>3186134</v>
+        <v>3191601</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>5838863</v>
+        <v>5846049</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>5786940</v>
+        <v>5777673</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>5975320</v>
+        <v>5984796</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2841279</v>
+        <v>2837836</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2799125</v>
+        <v>2802666</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2882178</v>
+        <v>2883642</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>3144838</v>
+        <v>3141779</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>3126003</v>
+        <v>3125352</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3279661</v>
+        <v>3278077</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>5960423</v>
+        <v>5965085</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>5899172</v>
+        <v>5902464</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>6125136</v>
+        <v>6132000</v>
       </c>
     </row>
     <row r="40">
